--- a/Sintese de Ind Sociais dados extraidos.xlsx
+++ b/Sintese de Ind Sociais dados extraidos.xlsx
@@ -16,7 +16,9 @@
     <sheet name="tab3.11a" sheetId="1" r:id="rId2"/>
     <sheet name="tab3.11a_transposta" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="tab3.11b" sheetId="3" r:id="rId4"/>
-    <sheet name="tab3.11b_transposta" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="tab 3.12a" sheetId="6" r:id="rId5"/>
+    <sheet name="tab 3.12b" sheetId="7" r:id="rId6"/>
+    <sheet name="tab3.11b_transposta" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -81,12 +83,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grau de instrução por ano e atividade educacional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>rodri:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grau de instrução por ano e parcela na renda familiar</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="35">
   <si>
     <t>Ano</t>
   </si>
@@ -182,6 +232,15 @@
   </si>
   <si>
     <t>Status educacional</t>
+  </si>
+  <si>
+    <t>tab 3.12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição percentual de jovens de 15 a 17 anos de idade por tipo de atividade na semana de referência e grupos de idade  segundo as características selecionadas </t>
+  </si>
+  <si>
+    <t>tab 3.12b</t>
   </si>
 </sst>
 </file>
@@ -304,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,6 +402,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,11 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G26"/>
+  <dimension ref="B4:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,7 +796,7 @@
       <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -743,7 +808,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -759,7 +824,7 @@
       <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -771,16 +836,28 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
@@ -791,12 +868,24 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
@@ -862,46 +951,16 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -910,10 +969,10 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20:F25"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,7 +1897,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2292,6 +2351,974 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18.381861612827684</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.9433820429785706</v>
+      </c>
+      <c r="E2" s="6">
+        <v>16.837669071708984</v>
+      </c>
+      <c r="F2" s="6">
+        <v>27.112011581908753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="6">
+        <v>53.333028146632138</v>
+      </c>
+      <c r="D3" s="6">
+        <v>27.406426051937601</v>
+      </c>
+      <c r="E3" s="6">
+        <v>19.480934423190554</v>
+      </c>
+      <c r="F3" s="6">
+        <v>22.205725399779656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="6">
+        <v>26.724646152686109</v>
+      </c>
+      <c r="D4" s="6">
+        <v>57.101181240675679</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49.447201331541201</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45.171976017160858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C5" s="6">
+        <v>25.543836946469455</v>
+      </c>
+      <c r="D5" s="6">
+        <v>52.374259183216402</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45.184179909877663</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42.621349528760597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.180809206216648</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.7269220574592969</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.2630214216635522</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.5506264884002716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.560464087853995</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.5490106644081854</v>
+      </c>
+      <c r="E7" s="6">
+        <v>14.23419517355919</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.5102870011506706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="6">
+        <v>18.464954739657525</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6.683860504590089</v>
+      </c>
+      <c r="E8" s="6">
+        <v>15.269084200631553</v>
+      </c>
+      <c r="F8" s="6">
+        <v>25.92502991113966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="6">
+        <v>53.031725672082679</v>
+      </c>
+      <c r="D9" s="6">
+        <v>26.322987840989352</v>
+      </c>
+      <c r="E9" s="6">
+        <v>19.487628051857826</v>
+      </c>
+      <c r="F9" s="6">
+        <v>22.164714297973198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="6">
+        <v>27.008076041216022</v>
+      </c>
+      <c r="D10" s="6">
+        <v>57.621878295211829</v>
+      </c>
+      <c r="E10" s="6">
+        <v>50.803971943706301</v>
+      </c>
+      <c r="F10" s="6">
+        <v>46.683185828265557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="6">
+        <v>25.80284529339276</v>
+      </c>
+      <c r="D11" s="6">
+        <v>52.05634808878721</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45.660174919718386</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43.862251281292934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.2052307478232529</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.5655302064246266</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.1437970239879265</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.8209345469726097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.4952435470437719</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9.3712733592087289</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14.439315803804263</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5.2270699626216022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="6">
+        <v>17.506012448883478</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5.9193545198526776</v>
+      </c>
+      <c r="E14" s="6">
+        <v>14.395157451548075</v>
+      </c>
+      <c r="F14" s="6">
+        <v>25.075290663123507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="6">
+        <v>51.483989521679696</v>
+      </c>
+      <c r="D15" s="6">
+        <v>24.618802803130965</v>
+      </c>
+      <c r="E15" s="6">
+        <v>19.450056108274794</v>
+      </c>
+      <c r="F15" s="6">
+        <v>22.111737912984214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="6">
+        <v>29.221475962812132</v>
+      </c>
+      <c r="D16" s="6">
+        <v>59.354857289132909</v>
+      </c>
+      <c r="E16" s="6">
+        <v>51.161700725641111</v>
+      </c>
+      <c r="F16" s="6">
+        <v>47.344774520077671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="6">
+        <v>26.949268850760735</v>
+      </c>
+      <c r="D17" s="6">
+        <v>51.790642252104405</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45.243456646644162</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43.719204771189794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.2722071120513876</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7.5642150370284869</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5.9182440789969712</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.6255697488878891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.7885220666246091</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10.10698538788348</v>
+      </c>
+      <c r="E19" s="6">
+        <v>14.993085714535901</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5.4681969038146487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="6">
+        <v>24.840627936021079</v>
+      </c>
+      <c r="D20" s="6">
+        <v>18.061853769884198</v>
+      </c>
+      <c r="E20" s="6">
+        <v>38.044671580567943</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45.228513264932758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="6">
+        <v>72.456238952597772</v>
+      </c>
+      <c r="D21" s="6">
+        <v>77.701657816683536</v>
+      </c>
+      <c r="E21" s="6">
+        <v>23.168041289782277</v>
+      </c>
+      <c r="F21" s="6">
+        <v>24.528029282405722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2.7031331113810744</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4.2364884134322551</v>
+      </c>
+      <c r="E22" s="6">
+        <v>38.787287129649776</v>
+      </c>
+      <c r="F22" s="6">
+        <v>30.243457452661531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2.5829093211900322</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4.0989802906202639</v>
+      </c>
+      <c r="E23" s="6">
+        <v>36.944000699509317</v>
+      </c>
+      <c r="F23" s="6">
+        <v>29.220062033501165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.12022379019104286</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.13750812281199021</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.8432864301404541</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1.0233954191603689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="8">
+        <v>26.732708407084463</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9.7112163963770985</v>
+      </c>
+      <c r="E2" s="8">
+        <v>12.343779585908683</v>
+      </c>
+      <c r="F2" s="8">
+        <v>39.4917406043906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="8">
+        <v>24.010816016033843</v>
+      </c>
+      <c r="D3" s="8">
+        <v>15.338576925528708</v>
+      </c>
+      <c r="E3" s="8">
+        <v>19.632492011111978</v>
+      </c>
+      <c r="F3" s="8">
+        <v>29.385523071382249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="8">
+        <v>17.794224632471284</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20.993837848613794</v>
+      </c>
+      <c r="E4" s="8">
+        <v>23.227134450811427</v>
+      </c>
+      <c r="F4" s="8">
+        <v>15.642127805640342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15.180350905717486</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28.06802351104168</v>
+      </c>
+      <c r="E5" s="8">
+        <v>26.352214138523046</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.3003056809489131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="8">
+        <v>16.224616128369636</v>
+      </c>
+      <c r="D6" s="8">
+        <v>25.742940975561325</v>
+      </c>
+      <c r="E6" s="8">
+        <v>18.364835916724846</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6.1741289955013521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="8">
+        <v>27.318990306788816</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.5631660255504709</v>
+      </c>
+      <c r="E7" s="8">
+        <v>11.77317956848383</v>
+      </c>
+      <c r="F7" s="8">
+        <v>40.436619398349599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="8">
+        <v>24.157288598090791</v>
+      </c>
+      <c r="D8" s="8">
+        <v>14.624547327858334</v>
+      </c>
+      <c r="E8" s="8">
+        <v>20.125598358762605</v>
+      </c>
+      <c r="F8" s="8">
+        <v>29.376457872278593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="8">
+        <v>19.530776219246775</v>
+      </c>
+      <c r="D9" s="8">
+        <v>21.439667870389204</v>
+      </c>
+      <c r="E9" s="8">
+        <v>23.519918962156495</v>
+      </c>
+      <c r="F9" s="8">
+        <v>17.531525645978149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="8">
+        <v>14.162404870988368</v>
+      </c>
+      <c r="D10" s="8">
+        <v>27.36596129173039</v>
+      </c>
+      <c r="E10" s="8">
+        <v>25.623966877211227</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7.8733524053642272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="8">
+        <v>14.817299486919302</v>
+      </c>
+      <c r="D11" s="8">
+        <v>27.973197884473606</v>
+      </c>
+      <c r="E11" s="8">
+        <v>18.878161866065504</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4.7495787914587018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="8">
+        <v>27.122235144239763</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8.7452602443171266</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12.48846160189264</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42.355546668910357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="8">
+        <v>24.536148256717844</v>
+      </c>
+      <c r="D13" s="8">
+        <v>14.532314087521097</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20.646388444193111</v>
+      </c>
+      <c r="F13" s="8">
+        <v>29.024568556486425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="8">
+        <v>18.343616872185805</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20.376000697246123</v>
+      </c>
+      <c r="E14" s="8">
+        <v>22.809471038862618</v>
+      </c>
+      <c r="F14" s="8">
+        <v>15.532933572399411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14.975451992013561</v>
+      </c>
+      <c r="D15" s="8">
+        <v>28.659670900944807</v>
+      </c>
+      <c r="E15" s="8">
+        <v>26.34074037899811</v>
+      </c>
+      <c r="F15" s="8">
+        <v>8.4447866900465431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="8">
+        <v>15.008873506761041</v>
+      </c>
+      <c r="D16" s="8">
+        <v>27.625329010639792</v>
+      </c>
+      <c r="E16" s="8">
+        <v>17.645840142352267</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4.6306866996344764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="8">
+        <v>32.238589496042032</v>
+      </c>
+      <c r="D17" s="8">
+        <v>20.856829335045397</v>
+      </c>
+      <c r="E17" s="8">
+        <v>28.339511570615162</v>
+      </c>
+      <c r="F17" s="8">
+        <v>45.250829489623449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="8">
+        <v>26.512781131256052</v>
+      </c>
+      <c r="D18" s="8">
+        <v>24.358139587442647</v>
+      </c>
+      <c r="E18" s="8">
+        <v>23.865234526995536</v>
+      </c>
+      <c r="F18" s="8">
+        <v>29.323047624762662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="8">
+        <v>17.779569417692791</v>
+      </c>
+      <c r="D19" s="8">
+        <v>23.349079093511431</v>
+      </c>
+      <c r="E19" s="8">
+        <v>27.255447810024457</v>
+      </c>
+      <c r="F19" s="8">
+        <v>16.026927792067259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13.56383548867047</v>
+      </c>
+      <c r="D20" s="8">
+        <v>22.97087753280783</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14.501670937117774</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6.6767097318094546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9.892513788195723</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8.3876385674347755</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6.0381351552470957</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.722485361737208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>

--- a/Sintese de Ind Sociais dados extraidos.xlsx
+++ b/Sintese de Ind Sociais dados extraidos.xlsx
@@ -744,7 +744,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
